--- a/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-alemania-elo-facil.xlsx
@@ -4037,10 +4037,10 @@
         <v>-2.218</v>
       </c>
       <c r="H2">
-        <v>-0.6899999999999999</v>
+        <v>-0.623</v>
       </c>
       <c r="I2">
-        <v>0.491</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4066,10 +4066,10 @@
         <v>-1.002</v>
       </c>
       <c r="H3">
-        <v>-0.295</v>
+        <v>-0.32</v>
       </c>
       <c r="I3">
-        <v>0.768</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4095,10 +4095,10 @@
         <v>2.85</v>
       </c>
       <c r="H4">
-        <v>0.82</v>
+        <v>0.782</v>
       </c>
       <c r="I4">
-        <v>0.413</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4124,10 +4124,10 @@
         <v>1.443</v>
       </c>
       <c r="H5">
-        <v>0.431</v>
+        <v>0.373</v>
       </c>
       <c r="I5">
-        <v>0.667</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4153,10 +4153,10 @@
         <v>4.239</v>
       </c>
       <c r="H6">
-        <v>1.238</v>
+        <v>1.357</v>
       </c>
       <c r="I6">
-        <v>0.217</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4182,10 +4182,10 @@
         <v>-3.245</v>
       </c>
       <c r="H7">
-        <v>-0.867</v>
+        <v>-0.878</v>
       </c>
       <c r="I7">
-        <v>0.387</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4211,10 +4211,10 @@
         <v>1.09</v>
       </c>
       <c r="H8">
-        <v>0.836</v>
+        <v>0.676</v>
       </c>
       <c r="I8">
-        <v>0.404</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4240,10 +4240,10 @@
         <v>0.6889999999999999</v>
       </c>
       <c r="H9">
-        <v>0.517</v>
+        <v>0.579</v>
       </c>
       <c r="I9">
-        <v>0.606</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4269,10 +4269,10 @@
         <v>-1.486</v>
       </c>
       <c r="H10">
-        <v>-1.079</v>
+        <v>-0.953</v>
       </c>
       <c r="I10">
-        <v>0.282</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4298,10 +4298,10 @@
         <v>-0.286</v>
       </c>
       <c r="H11">
-        <v>-0.205</v>
+        <v>-0.189</v>
       </c>
       <c r="I11">
-        <v>0.838</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4327,10 +4327,10 @@
         <v>-0.99</v>
       </c>
       <c r="H12">
-        <v>-0.713</v>
+        <v>-0.766</v>
       </c>
       <c r="I12">
-        <v>0.476</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4356,10 +4356,10 @@
         <v>1.386</v>
       </c>
       <c r="H13">
-        <v>1.024</v>
+        <v>1.206</v>
       </c>
       <c r="I13">
-        <v>0.307</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4385,10 +4385,10 @@
         <v>-0.036</v>
       </c>
       <c r="H14">
-        <v>-1.858</v>
+        <v>-1.621</v>
       </c>
       <c r="I14">
-        <v>0.065</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4414,10 +4414,10 @@
         <v>-0.021</v>
       </c>
       <c r="H15">
-        <v>-1.074</v>
+        <v>-1.017</v>
       </c>
       <c r="I15">
-        <v>0.284</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4443,10 +4443,10 @@
         <v>-0.017</v>
       </c>
       <c r="H16">
-        <v>-0.792</v>
+        <v>-0.861</v>
       </c>
       <c r="I16">
-        <v>0.429</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4472,10 +4472,10 @@
         <v>-0.036</v>
       </c>
       <c r="H17">
-        <v>-1.588</v>
+        <v>-1.862</v>
       </c>
       <c r="I17">
-        <v>0.114</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4501,10 +4501,10 @@
         <v>-0.036</v>
       </c>
       <c r="H18">
-        <v>-1.483</v>
+        <v>-1.475</v>
       </c>
       <c r="I18">
-        <v>0.139</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4530,10 +4530,10 @@
         <v>-0.019</v>
       </c>
       <c r="H19">
-        <v>-0.738</v>
+        <v>-0.504</v>
       </c>
       <c r="I19">
-        <v>0.462</v>
+        <v>0.614</v>
       </c>
     </row>
   </sheetData>
@@ -4619,10 +4619,10 @@
         <v>-7.094</v>
       </c>
       <c r="I2">
-        <v>-2.195</v>
+        <v>-2.463</v>
       </c>
       <c r="J2">
-        <v>0.029</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4651,10 +4651,10 @@
         <v>-0.612</v>
       </c>
       <c r="I3">
-        <v>-0.178</v>
+        <v>-0.148</v>
       </c>
       <c r="J3">
-        <v>0.859</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4683,10 +4683,10 @@
         <v>4.293</v>
       </c>
       <c r="I4">
-        <v>1.219</v>
+        <v>1.203</v>
       </c>
       <c r="J4">
-        <v>0.224</v>
+        <v>0.229</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4715,10 +4715,10 @@
         <v>4.609</v>
       </c>
       <c r="I5">
-        <v>1.36</v>
+        <v>1.407</v>
       </c>
       <c r="J5">
-        <v>0.175</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4747,10 +4747,10 @@
         <v>4.397</v>
       </c>
       <c r="I6">
-        <v>1.264</v>
+        <v>1.328</v>
       </c>
       <c r="J6">
-        <v>0.207</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4779,10 +4779,10 @@
         <v>-1.8</v>
       </c>
       <c r="I7">
-        <v>-0.473</v>
+        <v>-0.459</v>
       </c>
       <c r="J7">
-        <v>0.637</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4811,10 +4811,10 @@
         <v>3.28</v>
       </c>
       <c r="I8">
-        <v>2.509</v>
+        <v>2.609</v>
       </c>
       <c r="J8">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4843,10 +4843,10 @@
         <v>0.373</v>
       </c>
       <c r="I9">
-        <v>0.275</v>
+        <v>0.224</v>
       </c>
       <c r="J9">
-        <v>0.783</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4875,10 +4875,10 @@
         <v>-2.014</v>
       </c>
       <c r="I10">
-        <v>-1.443</v>
+        <v>-1.272</v>
       </c>
       <c r="J10">
-        <v>0.151</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4907,10 +4907,10 @@
         <v>-2.222</v>
       </c>
       <c r="I11">
-        <v>-1.58</v>
+        <v>-1.852</v>
       </c>
       <c r="J11">
-        <v>0.115</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4939,10 +4939,10 @@
         <v>-1.161</v>
       </c>
       <c r="I12">
-        <v>-0.824</v>
+        <v>-0.784</v>
       </c>
       <c r="J12">
-        <v>0.411</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4971,10 +4971,10 @@
         <v>1.211</v>
       </c>
       <c r="I13">
-        <v>0.879</v>
+        <v>0.925</v>
       </c>
       <c r="J13">
-        <v>0.38</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5003,10 +5003,10 @@
         <v>-0.031</v>
       </c>
       <c r="I14">
-        <v>-1.595</v>
+        <v>-1.812</v>
       </c>
       <c r="J14">
-        <v>0.112</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5035,10 +5035,10 @@
         <v>-0.029</v>
       </c>
       <c r="I15">
-        <v>-1.459</v>
+        <v>-1.15</v>
       </c>
       <c r="J15">
-        <v>0.146</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5067,10 +5067,10 @@
         <v>-0.017</v>
       </c>
       <c r="I16">
-        <v>-0.799</v>
+        <v>-0.648</v>
       </c>
       <c r="J16">
-        <v>0.425</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5099,10 +5099,10 @@
         <v>-0.013</v>
       </c>
       <c r="I17">
-        <v>-0.5580000000000001</v>
+        <v>-0.501</v>
       </c>
       <c r="J17">
-        <v>0.578</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5131,10 +5131,10 @@
         <v>0.019</v>
       </c>
       <c r="I18">
-        <v>0.784</v>
+        <v>0.661</v>
       </c>
       <c r="J18">
-        <v>0.434</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5163,10 +5163,10 @@
         <v>0.016</v>
       </c>
       <c r="I19">
-        <v>0.591</v>
+        <v>0.416</v>
       </c>
       <c r="J19">
-        <v>0.555</v>
+        <v>0.677</v>
       </c>
     </row>
   </sheetData>
@@ -5259,10 +5259,10 @@
         <v>-7.908</v>
       </c>
       <c r="J2">
-        <v>-2.096</v>
+        <v>-2.363</v>
       </c>
       <c r="K2">
-        <v>0.037</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5294,10 +5294,10 @@
         <v>3.712</v>
       </c>
       <c r="J3">
-        <v>0.926</v>
+        <v>0.764</v>
       </c>
       <c r="K3">
-        <v>0.355</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5329,10 +5329,10 @@
         <v>7.366</v>
       </c>
       <c r="J4">
-        <v>1.801</v>
+        <v>1.852</v>
       </c>
       <c r="K4">
-        <v>0.073</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5364,10 +5364,10 @@
         <v>5.606</v>
       </c>
       <c r="J5">
-        <v>1.42</v>
+        <v>1.497</v>
       </c>
       <c r="K5">
-        <v>0.157</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5399,10 +5399,10 @@
         <v>3.744</v>
       </c>
       <c r="J6">
-        <v>0.922</v>
+        <v>0.953</v>
       </c>
       <c r="K6">
-        <v>0.358</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5434,10 +5434,10 @@
         <v>-2.581</v>
       </c>
       <c r="J7">
-        <v>-0.581</v>
+        <v>-0.579</v>
       </c>
       <c r="K7">
-        <v>0.5620000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5469,10 +5469,10 @@
         <v>3.499</v>
       </c>
       <c r="J8">
-        <v>2.29</v>
+        <v>2.351</v>
       </c>
       <c r="K8">
-        <v>0.023</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5504,10 +5504,10 @@
         <v>-1.391</v>
       </c>
       <c r="J9">
-        <v>-0.881</v>
+        <v>-0.677</v>
       </c>
       <c r="K9">
-        <v>0.379</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5539,10 +5539,10 @@
         <v>-3.084</v>
       </c>
       <c r="J10">
-        <v>-1.901</v>
+        <v>-1.848</v>
       </c>
       <c r="K10">
-        <v>0.059</v>
+        <v>0.065</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5574,10 +5574,10 @@
         <v>-2.591</v>
       </c>
       <c r="J11">
-        <v>-1.58</v>
+        <v>-1.722</v>
       </c>
       <c r="K11">
-        <v>0.115</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5609,10 +5609,10 @@
         <v>-0.976</v>
       </c>
       <c r="J12">
-        <v>-0.593</v>
+        <v>-0.546</v>
       </c>
       <c r="K12">
-        <v>0.553</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5644,10 +5644,10 @@
         <v>1.428</v>
       </c>
       <c r="J13">
-        <v>0.89</v>
+        <v>0.978</v>
       </c>
       <c r="K13">
-        <v>0.375</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5679,10 +5679,10 @@
         <v>-0.037</v>
       </c>
       <c r="J14">
-        <v>-1.63</v>
+        <v>-1.79</v>
       </c>
       <c r="K14">
-        <v>0.104</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5714,10 +5714,10 @@
         <v>-0.039</v>
       </c>
       <c r="J15">
-        <v>-1.679</v>
+        <v>-1.509</v>
       </c>
       <c r="K15">
-        <v>0.095</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5749,10 +5749,10 @@
         <v>-0.02</v>
       </c>
       <c r="J16">
-        <v>-0.782</v>
+        <v>-0.8120000000000001</v>
       </c>
       <c r="K16">
-        <v>0.435</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5784,10 +5784,10 @@
         <v>-0.022</v>
       </c>
       <c r="J17">
-        <v>-0.806</v>
+        <v>-0.796</v>
       </c>
       <c r="K17">
-        <v>0.421</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5819,10 +5819,10 @@
         <v>-0.004</v>
       </c>
       <c r="J18">
-        <v>-0.125</v>
+        <v>-0.108</v>
       </c>
       <c r="K18">
-        <v>0.901</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5854,10 +5854,10 @@
         <v>0.013</v>
       </c>
       <c r="J19">
-        <v>0.427</v>
+        <v>0.36</v>
       </c>
       <c r="K19">
-        <v>0.67</v>
+        <v>0.719</v>
       </c>
     </row>
   </sheetData>
@@ -5950,10 +5950,10 @@
         <v>-8.653</v>
       </c>
       <c r="J2">
-        <v>-2.012</v>
+        <v>-2.08</v>
       </c>
       <c r="K2">
-        <v>0.045</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5985,10 +5985,10 @@
         <v>5.829</v>
       </c>
       <c r="J3">
-        <v>1.279</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="K3">
-        <v>0.202</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -6020,10 +6020,10 @@
         <v>9.362</v>
       </c>
       <c r="J4">
-        <v>2.013</v>
+        <v>1.978</v>
       </c>
       <c r="K4">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6055,10 +6055,10 @@
         <v>7.557</v>
       </c>
       <c r="J5">
-        <v>1.683</v>
+        <v>1.691</v>
       </c>
       <c r="K5">
-        <v>0.094</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6090,10 +6090,10 @@
         <v>3.899</v>
       </c>
       <c r="J6">
-        <v>0.842</v>
+        <v>0.891</v>
       </c>
       <c r="K6">
-        <v>0.4</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -6125,10 +6125,10 @@
         <v>-2.461</v>
       </c>
       <c r="J7">
-        <v>-0.487</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="K7">
-        <v>0.627</v>
+        <v>0.577</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6160,10 +6160,10 @@
         <v>3.334</v>
       </c>
       <c r="J8">
-        <v>1.908</v>
+        <v>1.742</v>
       </c>
       <c r="K8">
-        <v>0.058</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6195,10 +6195,10 @@
         <v>-2.316</v>
       </c>
       <c r="J9">
-        <v>-1.291</v>
+        <v>-0.924</v>
       </c>
       <c r="K9">
-        <v>0.198</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -6230,10 +6230,10 @@
         <v>-3.981</v>
       </c>
       <c r="J10">
-        <v>-2.16</v>
+        <v>-2.046</v>
       </c>
       <c r="K10">
-        <v>0.032</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6265,10 +6265,10 @@
         <v>-3.759</v>
       </c>
       <c r="J11">
-        <v>-2.02</v>
+        <v>-1.812</v>
       </c>
       <c r="K11">
-        <v>0.045</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6300,10 +6300,10 @@
         <v>-1.411</v>
       </c>
       <c r="J12">
-        <v>-0.754</v>
+        <v>-0.731</v>
       </c>
       <c r="K12">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6335,10 +6335,10 @@
         <v>1.084</v>
       </c>
       <c r="J13">
-        <v>0.592</v>
+        <v>0.78</v>
       </c>
       <c r="K13">
-        <v>0.554</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6370,10 +6370,10 @@
         <v>-0.039</v>
       </c>
       <c r="J14">
-        <v>-1.495</v>
+        <v>-1.955</v>
       </c>
       <c r="K14">
-        <v>0.136</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6405,10 +6405,10 @@
         <v>-0.019</v>
       </c>
       <c r="J15">
-        <v>-0.736</v>
+        <v>-0.743</v>
       </c>
       <c r="K15">
-        <v>0.463</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6440,10 +6440,10 @@
         <v>-0.003</v>
       </c>
       <c r="J16">
-        <v>-0.102</v>
+        <v>-0.145</v>
       </c>
       <c r="K16">
-        <v>0.919</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6475,10 +6475,10 @@
         <v>-0.026</v>
       </c>
       <c r="J17">
-        <v>-0.849</v>
+        <v>-0.931</v>
       </c>
       <c r="K17">
-        <v>0.397</v>
+        <v>0.352</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6510,10 +6510,10 @@
         <v>-0.006</v>
       </c>
       <c r="J18">
-        <v>-0.174</v>
+        <v>-0.151</v>
       </c>
       <c r="K18">
-        <v>0.862</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6545,10 +6545,10 @@
         <v>-0.004</v>
       </c>
       <c r="J19">
-        <v>-0.121</v>
+        <v>-0.115</v>
       </c>
       <c r="K19">
-        <v>0.904</v>
+        <v>0.909</v>
       </c>
     </row>
   </sheetData>
@@ -6634,10 +6634,10 @@
         <v>-3.672</v>
       </c>
       <c r="I2">
-        <v>-1.326</v>
+        <v>-1.243</v>
       </c>
       <c r="J2">
-        <v>0.186</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6666,10 +6666,10 @@
         <v>-2.392</v>
       </c>
       <c r="I3">
-        <v>-0.8169999999999999</v>
+        <v>-0.596</v>
       </c>
       <c r="J3">
-        <v>0.415</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6698,10 +6698,10 @@
         <v>-0.515</v>
       </c>
       <c r="I4">
-        <v>-0.171</v>
+        <v>-0.154</v>
       </c>
       <c r="J4">
-        <v>0.864</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6730,10 +6730,10 @@
         <v>2.616</v>
       </c>
       <c r="I5">
-        <v>0.905</v>
+        <v>0.874</v>
       </c>
       <c r="J5">
-        <v>0.367</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6762,10 +6762,10 @@
         <v>3.498</v>
       </c>
       <c r="I6">
-        <v>1.181</v>
+        <v>1.434</v>
       </c>
       <c r="J6">
-        <v>0.239</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6794,10 +6794,10 @@
         <v>-0.701</v>
       </c>
       <c r="I7">
-        <v>-0.216</v>
+        <v>-0.228</v>
       </c>
       <c r="J7">
-        <v>0.829</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6826,10 +6826,10 @@
         <v>2.345</v>
       </c>
       <c r="I8">
-        <v>2.099</v>
+        <v>2.095</v>
       </c>
       <c r="J8">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6858,10 +6858,10 @@
         <v>0.664</v>
       </c>
       <c r="I9">
-        <v>0.576</v>
+        <v>0.43</v>
       </c>
       <c r="J9">
-        <v>0.5649999999999999</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6890,10 +6890,10 @@
         <v>0.041</v>
       </c>
       <c r="I10">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="J10">
-        <v>0.973</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6922,10 +6922,10 @@
         <v>-1.17</v>
       </c>
       <c r="I11">
-        <v>-0.974</v>
+        <v>-1.067</v>
       </c>
       <c r="J11">
-        <v>0.331</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6954,10 +6954,10 @@
         <v>-1.089</v>
       </c>
       <c r="I12">
-        <v>-0.908</v>
+        <v>-0.9330000000000001</v>
       </c>
       <c r="J12">
-        <v>0.365</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6986,10 +6986,10 @@
         <v>0.485</v>
       </c>
       <c r="I13">
-        <v>0.414</v>
+        <v>0.473</v>
       </c>
       <c r="J13">
-        <v>0.68</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7018,10 +7018,10 @@
         <v>-0.023</v>
       </c>
       <c r="I14">
-        <v>-1.362</v>
+        <v>-1.661</v>
       </c>
       <c r="J14">
-        <v>0.175</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7050,10 +7050,10 @@
         <v>-0.017</v>
       </c>
       <c r="I15">
-        <v>-0.985</v>
+        <v>-1.184</v>
       </c>
       <c r="J15">
-        <v>0.326</v>
+        <v>0.236</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7082,10 +7082,10 @@
         <v>-0.031</v>
       </c>
       <c r="I16">
-        <v>-1.667</v>
+        <v>-1.951</v>
       </c>
       <c r="J16">
-        <v>0.097</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7114,10 +7114,10 @@
         <v>-0.022</v>
       </c>
       <c r="I17">
-        <v>-1.131</v>
+        <v>-0.9340000000000001</v>
       </c>
       <c r="J17">
-        <v>0.259</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7146,10 +7146,10 @@
         <v>-0.019</v>
       </c>
       <c r="I18">
-        <v>-0.923</v>
+        <v>-0.861</v>
       </c>
       <c r="J18">
-        <v>0.357</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7178,10 +7178,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.604</v>
+        <v>-0.605</v>
       </c>
       <c r="J19">
-        <v>0.547</v>
+        <v>0.545</v>
       </c>
     </row>
   </sheetData>
@@ -7267,10 +7267,10 @@
         <v>-5.785</v>
       </c>
       <c r="I2">
-        <v>-1.819</v>
+        <v>-1.757</v>
       </c>
       <c r="J2">
-        <v>0.07000000000000001</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7299,10 +7299,10 @@
         <v>-1.739</v>
       </c>
       <c r="I3">
-        <v>-0.515</v>
+        <v>-0.401</v>
       </c>
       <c r="J3">
-        <v>0.607</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7331,10 +7331,10 @@
         <v>5.346</v>
       </c>
       <c r="I4">
-        <v>1.551</v>
+        <v>1.29</v>
       </c>
       <c r="J4">
-        <v>0.122</v>
+        <v>0.197</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7363,10 +7363,10 @@
         <v>4.136</v>
       </c>
       <c r="I5">
-        <v>1.244</v>
+        <v>1.213</v>
       </c>
       <c r="J5">
-        <v>0.215</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7395,10 +7395,10 @@
         <v>6.542</v>
       </c>
       <c r="I6">
-        <v>1.928</v>
+        <v>2.407</v>
       </c>
       <c r="J6">
-        <v>0.055</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7427,10 +7427,10 @@
         <v>2.628</v>
       </c>
       <c r="I7">
-        <v>0.704</v>
+        <v>0.663</v>
       </c>
       <c r="J7">
-        <v>0.482</v>
+        <v>0.507</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7459,10 +7459,10 @@
         <v>2.918</v>
       </c>
       <c r="I8">
-        <v>2.27</v>
+        <v>2.432</v>
       </c>
       <c r="J8">
-        <v>0.024</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7491,10 +7491,10 @@
         <v>0.8090000000000001</v>
       </c>
       <c r="I9">
-        <v>0.609</v>
+        <v>0.479</v>
       </c>
       <c r="J9">
-        <v>0.543</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7523,10 +7523,10 @@
         <v>-2.117</v>
       </c>
       <c r="I10">
-        <v>-1.548</v>
+        <v>-1.169</v>
       </c>
       <c r="J10">
-        <v>0.123</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7555,10 +7555,10 @@
         <v>-2.234</v>
       </c>
       <c r="I11">
-        <v>-1.621</v>
+        <v>-1.822</v>
       </c>
       <c r="J11">
-        <v>0.106</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7587,10 +7587,10 @@
         <v>-2.285</v>
       </c>
       <c r="I12">
-        <v>-1.661</v>
+        <v>-1.883</v>
       </c>
       <c r="J12">
-        <v>0.098</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7619,10 +7619,10 @@
         <v>-0.412</v>
       </c>
       <c r="I13">
-        <v>-0.305</v>
+        <v>-0.296</v>
       </c>
       <c r="J13">
-        <v>0.761</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7651,10 +7651,10 @@
         <v>-0.017</v>
       </c>
       <c r="I14">
-        <v>-0.895</v>
+        <v>-1.03</v>
       </c>
       <c r="J14">
-        <v>0.372</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7683,10 +7683,10 @@
         <v>-0.024</v>
       </c>
       <c r="I15">
-        <v>-1.218</v>
+        <v>-1.242</v>
       </c>
       <c r="J15">
-        <v>0.225</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7715,10 +7715,10 @@
         <v>-0.02</v>
       </c>
       <c r="I16">
-        <v>-0.951</v>
+        <v>-0.841</v>
       </c>
       <c r="J16">
-        <v>0.343</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7747,10 +7747,10 @@
         <v>0.005</v>
       </c>
       <c r="I17">
-        <v>0.231</v>
+        <v>0.213</v>
       </c>
       <c r="J17">
-        <v>0.8169999999999999</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7779,10 +7779,10 @@
         <v>0.004</v>
       </c>
       <c r="I18">
-        <v>0.175</v>
+        <v>0.178</v>
       </c>
       <c r="J18">
-        <v>0.861</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7811,10 +7811,10 @@
         <v>-0.002</v>
       </c>
       <c r="I19">
-        <v>-0.076</v>
+        <v>-0.067</v>
       </c>
       <c r="J19">
-        <v>0.9389999999999999</v>
+        <v>0.947</v>
       </c>
     </row>
   </sheetData>
@@ -7907,10 +7907,10 @@
         <v>-6.249</v>
       </c>
       <c r="J2">
-        <v>-1.634</v>
+        <v>-1.755</v>
       </c>
       <c r="K2">
-        <v>0.104</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7942,10 +7942,10 @@
         <v>4.785</v>
       </c>
       <c r="J3">
-        <v>1.184</v>
+        <v>1.005</v>
       </c>
       <c r="K3">
-        <v>0.238</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7977,10 +7977,10 @@
         <v>8.380000000000001</v>
       </c>
       <c r="J4">
-        <v>2.033</v>
+        <v>1.813</v>
       </c>
       <c r="K4">
-        <v>0.043</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8012,10 +8012,10 @@
         <v>4.821</v>
       </c>
       <c r="J5">
-        <v>1.207</v>
+        <v>1.342</v>
       </c>
       <c r="K5">
-        <v>0.229</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8047,10 +8047,10 @@
         <v>6.451</v>
       </c>
       <c r="J6">
-        <v>1.579</v>
+        <v>1.839</v>
       </c>
       <c r="K6">
-        <v>0.116</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8082,10 +8082,10 @@
         <v>1.975</v>
       </c>
       <c r="J7">
-        <v>0.44</v>
+        <v>0.371</v>
       </c>
       <c r="K7">
-        <v>0.66</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8117,10 +8117,10 @@
         <v>3.072</v>
       </c>
       <c r="J8">
-        <v>1.985</v>
+        <v>2.209</v>
       </c>
       <c r="K8">
-        <v>0.048</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8152,10 +8152,10 @@
         <v>-1.648</v>
       </c>
       <c r="J9">
-        <v>-1.035</v>
+        <v>-0.839</v>
       </c>
       <c r="K9">
-        <v>0.302</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8187,10 +8187,10 @@
         <v>-3.102</v>
       </c>
       <c r="J10">
-        <v>-1.894</v>
+        <v>-1.531</v>
       </c>
       <c r="K10">
-        <v>0.06</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8222,10 +8222,10 @@
         <v>-2.41</v>
       </c>
       <c r="J11">
-        <v>-1.455</v>
+        <v>-1.737</v>
       </c>
       <c r="K11">
-        <v>0.147</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8257,10 +8257,10 @@
         <v>-1.999</v>
       </c>
       <c r="J12">
-        <v>-1.207</v>
+        <v>-1.364</v>
       </c>
       <c r="K12">
-        <v>0.229</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8292,10 +8292,10 @@
         <v>-0.263</v>
       </c>
       <c r="J13">
-        <v>-0.162</v>
+        <v>-0.143</v>
       </c>
       <c r="K13">
-        <v>0.872</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8327,10 +8327,10 @@
         <v>-0.02</v>
       </c>
       <c r="J14">
-        <v>-0.883</v>
+        <v>-1.077</v>
       </c>
       <c r="K14">
-        <v>0.378</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8362,10 +8362,10 @@
         <v>-0.026</v>
       </c>
       <c r="J15">
-        <v>-1.136</v>
+        <v>-1.336</v>
       </c>
       <c r="K15">
-        <v>0.257</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8397,10 +8397,10 @@
         <v>-0.021</v>
       </c>
       <c r="J16">
-        <v>-0.824</v>
+        <v>-0.856</v>
       </c>
       <c r="K16">
-        <v>0.411</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8432,10 +8432,10 @@
         <v>-0.001</v>
       </c>
       <c r="J17">
-        <v>-0.052</v>
+        <v>-0.056</v>
       </c>
       <c r="K17">
-        <v>0.959</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8467,10 +8467,10 @@
         <v>-0.016</v>
       </c>
       <c r="J18">
-        <v>-0.5620000000000001</v>
+        <v>-0.551</v>
       </c>
       <c r="K18">
-        <v>0.575</v>
+        <v>0.581</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8502,10 +8502,10 @@
         <v>-0.006</v>
       </c>
       <c r="J19">
-        <v>-0.191</v>
+        <v>-0.196</v>
       </c>
       <c r="K19">
-        <v>0.849</v>
+        <v>0.844</v>
       </c>
     </row>
   </sheetData>
@@ -8598,10 +8598,10 @@
         <v>-6.033</v>
       </c>
       <c r="J2">
-        <v>-1.418</v>
+        <v>-1.409</v>
       </c>
       <c r="K2">
-        <v>0.158</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -8633,10 +8633,10 @@
         <v>6.391</v>
       </c>
       <c r="J3">
-        <v>1.425</v>
+        <v>1.088</v>
       </c>
       <c r="K3">
-        <v>0.156</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -8668,10 +8668,10 @@
         <v>7.632</v>
       </c>
       <c r="J4">
-        <v>1.661</v>
+        <v>1.598</v>
       </c>
       <c r="K4">
-        <v>0.098</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -8703,10 +8703,10 @@
         <v>7.578</v>
       </c>
       <c r="J5">
-        <v>1.714</v>
+        <v>1.795</v>
       </c>
       <c r="K5">
-        <v>0.08799999999999999</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -8738,10 +8738,10 @@
         <v>5.857</v>
       </c>
       <c r="J6">
-        <v>1.288</v>
+        <v>1.635</v>
       </c>
       <c r="K6">
-        <v>0.199</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -8773,10 +8773,10 @@
         <v>1.214</v>
       </c>
       <c r="J7">
-        <v>0.244</v>
+        <v>0.254</v>
       </c>
       <c r="K7">
-        <v>0.8080000000000001</v>
+        <v>0.799</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -8808,10 +8808,10 @@
         <v>2.318</v>
       </c>
       <c r="J8">
-        <v>1.342</v>
+        <v>1.315</v>
       </c>
       <c r="K8">
-        <v>0.181</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -8843,10 +8843,10 @@
         <v>-2.383</v>
       </c>
       <c r="J9">
-        <v>-1.349</v>
+        <v>-0.969</v>
       </c>
       <c r="K9">
-        <v>0.179</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -8878,10 +8878,10 @@
         <v>-2.812</v>
       </c>
       <c r="J10">
-        <v>-1.541</v>
+        <v>-1.496</v>
       </c>
       <c r="K10">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -8913,10 +8913,10 @@
         <v>-3.661</v>
       </c>
       <c r="J11">
-        <v>-1.997</v>
+        <v>-1.939</v>
       </c>
       <c r="K11">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -8948,10 +8948,10 @@
         <v>-2.346</v>
       </c>
       <c r="J12">
-        <v>-1.276</v>
+        <v>-1.54</v>
       </c>
       <c r="K12">
-        <v>0.203</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -8983,10 +8983,10 @@
         <v>-0.156</v>
       </c>
       <c r="J13">
-        <v>-0.08699999999999999</v>
+        <v>-0.098</v>
       </c>
       <c r="K13">
-        <v>0.931</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -9018,10 +9018,10 @@
         <v>-0.006</v>
       </c>
       <c r="J14">
-        <v>-0.252</v>
+        <v>-0.403</v>
       </c>
       <c r="K14">
-        <v>0.802</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -9053,10 +9053,10 @@
         <v>0.002</v>
       </c>
       <c r="J15">
-        <v>0.066</v>
+        <v>0.079</v>
       </c>
       <c r="K15">
-        <v>0.948</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -9088,10 +9088,10 @@
         <v>0.005</v>
       </c>
       <c r="J16">
-        <v>0.186</v>
+        <v>0.21</v>
       </c>
       <c r="K16">
-        <v>0.853</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -9123,10 +9123,10 @@
         <v>0.016</v>
       </c>
       <c r="J17">
-        <v>0.524</v>
+        <v>0.633</v>
       </c>
       <c r="K17">
-        <v>0.601</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -9158,10 +9158,10 @@
         <v>-0.003</v>
       </c>
       <c r="J18">
-        <v>-0.083</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="K18">
-        <v>0.9340000000000001</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -9193,10 +9193,10 @@
         <v>-0.019</v>
       </c>
       <c r="J19">
-        <v>-0.551</v>
+        <v>-0.676</v>
       </c>
       <c r="K19">
-        <v>0.582</v>
+        <v>0.499</v>
       </c>
     </row>
   </sheetData>
@@ -9282,10 +9282,10 @@
         <v>-4.949</v>
       </c>
       <c r="I2">
-        <v>-1.294</v>
+        <v>-1.418</v>
       </c>
       <c r="J2">
-        <v>0.197</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9314,10 +9314,10 @@
         <v>1.303</v>
       </c>
       <c r="I3">
-        <v>0.322</v>
+        <v>0.326</v>
       </c>
       <c r="J3">
-        <v>0.748</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9346,10 +9346,10 @@
         <v>6.923</v>
       </c>
       <c r="I4">
-        <v>1.678</v>
+        <v>1.407</v>
       </c>
       <c r="J4">
-        <v>0.095</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -9378,10 +9378,10 @@
         <v>3.466</v>
       </c>
       <c r="I5">
-        <v>0.869</v>
+        <v>0.722</v>
       </c>
       <c r="J5">
-        <v>0.386</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -9410,10 +9410,10 @@
         <v>6.968</v>
       </c>
       <c r="I6">
-        <v>1.711</v>
+        <v>1.782</v>
       </c>
       <c r="J6">
-        <v>0.089</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -9442,7 +9442,7 @@
         <v>-0.202</v>
       </c>
       <c r="I7">
-        <v>-0.045</v>
+        <v>-0.046</v>
       </c>
       <c r="J7">
         <v>0.964</v>
@@ -9474,10 +9474,10 @@
         <v>1.556</v>
       </c>
       <c r="I8">
-        <v>1.001</v>
+        <v>0.973</v>
       </c>
       <c r="J8">
-        <v>0.318</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -9506,10 +9506,10 @@
         <v>0.121</v>
       </c>
       <c r="I9">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="J9">
-        <v>0.9389999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -9538,10 +9538,10 @@
         <v>-3.295</v>
       </c>
       <c r="I10">
-        <v>-2.018</v>
+        <v>-1.636</v>
       </c>
       <c r="J10">
-        <v>0.045</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -9570,10 +9570,10 @@
         <v>-1.657</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>-0.952</v>
       </c>
       <c r="J11">
-        <v>0.318</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -9602,10 +9602,10 @@
         <v>-2.469</v>
       </c>
       <c r="I12">
-        <v>-1.497</v>
+        <v>-1.588</v>
       </c>
       <c r="J12">
-        <v>0.136</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -9634,10 +9634,10 @@
         <v>0.522</v>
       </c>
       <c r="I13">
-        <v>0.322</v>
+        <v>0.337</v>
       </c>
       <c r="J13">
-        <v>0.748</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -9666,10 +9666,10 @@
         <v>-0.039</v>
       </c>
       <c r="I14">
-        <v>-1.692</v>
+        <v>-1.602</v>
       </c>
       <c r="J14">
-        <v>0.092</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -9698,10 +9698,10 @@
         <v>-0.01</v>
       </c>
       <c r="I15">
-        <v>-0.436</v>
+        <v>-0.44</v>
       </c>
       <c r="J15">
-        <v>0.664</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -9730,10 +9730,10 @@
         <v>0.015</v>
       </c>
       <c r="I16">
-        <v>0.574</v>
+        <v>0.58</v>
       </c>
       <c r="J16">
-        <v>0.5669999999999999</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -9762,10 +9762,10 @@
         <v>-0.024</v>
       </c>
       <c r="I17">
-        <v>-0.905</v>
+        <v>-0.952</v>
       </c>
       <c r="J17">
-        <v>0.366</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -9794,10 +9794,10 @@
         <v>-0.03</v>
       </c>
       <c r="I18">
-        <v>-1.021</v>
+        <v>-1.09</v>
       </c>
       <c r="J18">
-        <v>0.308</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -9826,10 +9826,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.433</v>
+        <v>-0.29</v>
       </c>
       <c r="J19">
-        <v>0.666</v>
+        <v>0.772</v>
       </c>
     </row>
   </sheetData>
@@ -9915,10 +9915,10 @@
         <v>-5.365</v>
       </c>
       <c r="I2">
-        <v>-1.223</v>
+        <v>-1.535</v>
       </c>
       <c r="J2">
-        <v>0.223</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -9947,10 +9947,10 @@
         <v>2.871</v>
       </c>
       <c r="I3">
-        <v>0.619</v>
+        <v>0.595</v>
       </c>
       <c r="J3">
-        <v>0.536</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -9979,10 +9979,10 @@
         <v>8.659000000000001</v>
       </c>
       <c r="I4">
-        <v>1.833</v>
+        <v>1.499</v>
       </c>
       <c r="J4">
-        <v>0.068</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10011,10 +10011,10 @@
         <v>4.284</v>
       </c>
       <c r="I5">
-        <v>0.9370000000000001</v>
+        <v>0.801</v>
       </c>
       <c r="J5">
-        <v>0.35</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10043,10 +10043,10 @@
         <v>6.334</v>
       </c>
       <c r="I6">
-        <v>1.353</v>
+        <v>1.423</v>
       </c>
       <c r="J6">
-        <v>0.177</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10075,10 +10075,10 @@
         <v>-1.881</v>
       </c>
       <c r="I7">
-        <v>-0.367</v>
+        <v>-0.406</v>
       </c>
       <c r="J7">
-        <v>0.714</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10107,10 +10107,10 @@
         <v>1.84</v>
       </c>
       <c r="I8">
-        <v>1.033</v>
+        <v>1.041</v>
       </c>
       <c r="J8">
-        <v>0.303</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10139,10 +10139,10 @@
         <v>-0.6</v>
       </c>
       <c r="I9">
-        <v>-0.329</v>
+        <v>-0.272</v>
       </c>
       <c r="J9">
-        <v>0.743</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10171,10 +10171,10 @@
         <v>-3.772</v>
       </c>
       <c r="I10">
-        <v>-2.015</v>
+        <v>-1.586</v>
       </c>
       <c r="J10">
-        <v>0.045</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10203,10 +10203,10 @@
         <v>-1.841</v>
       </c>
       <c r="I11">
-        <v>-0.969</v>
+        <v>-0.891</v>
       </c>
       <c r="J11">
-        <v>0.334</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10235,10 +10235,10 @@
         <v>-2.347</v>
       </c>
       <c r="I12">
-        <v>-1.239</v>
+        <v>-1.32</v>
       </c>
       <c r="J12">
-        <v>0.217</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10267,10 +10267,10 @@
         <v>0.886</v>
       </c>
       <c r="I13">
-        <v>0.477</v>
+        <v>0.538</v>
       </c>
       <c r="J13">
-        <v>0.634</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10299,10 +10299,10 @@
         <v>-0.037</v>
       </c>
       <c r="I14">
-        <v>-1.409</v>
+        <v>-1.195</v>
       </c>
       <c r="J14">
-        <v>0.16</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10331,10 +10331,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I15">
-        <v>-0.35</v>
+        <v>-0.395</v>
       </c>
       <c r="J15">
-        <v>0.727</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10363,10 +10363,10 @@
         <v>0.015</v>
       </c>
       <c r="I16">
-        <v>0.511</v>
+        <v>0.518</v>
       </c>
       <c r="J16">
-        <v>0.61</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10395,10 +10395,10 @@
         <v>-0.035</v>
       </c>
       <c r="I17">
-        <v>-1.129</v>
+        <v>-1.137</v>
       </c>
       <c r="J17">
-        <v>0.26</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10427,10 +10427,10 @@
         <v>-0.051</v>
       </c>
       <c r="I18">
-        <v>-1.554</v>
+        <v>-2.062</v>
       </c>
       <c r="J18">
-        <v>0.122</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10459,10 +10459,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.392</v>
+        <v>-0.301</v>
       </c>
       <c r="J19">
-        <v>0.695</v>
+        <v>0.764</v>
       </c>
     </row>
   </sheetData>
@@ -10548,10 +10548,10 @@
         <v>-3.707</v>
       </c>
       <c r="I2">
-        <v>-0.759</v>
+        <v>-0.926</v>
       </c>
       <c r="J2">
-        <v>0.449</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10580,10 +10580,10 @@
         <v>2.644</v>
       </c>
       <c r="I3">
-        <v>0.513</v>
+        <v>0.47</v>
       </c>
       <c r="J3">
-        <v>0.608</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10612,10 +10612,10 @@
         <v>10.606</v>
       </c>
       <c r="I4">
-        <v>2.024</v>
+        <v>1.706</v>
       </c>
       <c r="J4">
-        <v>0.044</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10644,10 +10644,10 @@
         <v>7.227</v>
       </c>
       <c r="I5">
-        <v>1.426</v>
+        <v>1.131</v>
       </c>
       <c r="J5">
-        <v>0.155</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10676,10 +10676,10 @@
         <v>6.914</v>
       </c>
       <c r="I6">
-        <v>1.329</v>
+        <v>1.282</v>
       </c>
       <c r="J6">
-        <v>0.185</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10708,10 +10708,10 @@
         <v>-0.792</v>
       </c>
       <c r="I7">
-        <v>-0.139</v>
+        <v>-0.151</v>
       </c>
       <c r="J7">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10740,10 +10740,10 @@
         <v>0.926</v>
       </c>
       <c r="I8">
-        <v>0.467</v>
+        <v>0.473</v>
       </c>
       <c r="J8">
-        <v>0.641</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10772,10 +10772,10 @@
         <v>-0.469</v>
       </c>
       <c r="I9">
-        <v>-0.231</v>
+        <v>-0.188</v>
       </c>
       <c r="J9">
-        <v>0.8169999999999999</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10804,10 +10804,10 @@
         <v>-4.591</v>
       </c>
       <c r="I10">
-        <v>-2.211</v>
+        <v>-1.777</v>
       </c>
       <c r="J10">
-        <v>0.028</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10836,10 +10836,10 @@
         <v>-2.988</v>
       </c>
       <c r="I11">
-        <v>-1.418</v>
+        <v>-1.123</v>
       </c>
       <c r="J11">
-        <v>0.158</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10868,10 +10868,10 @@
         <v>-2.831</v>
       </c>
       <c r="I12">
-        <v>-1.346</v>
+        <v>-1.318</v>
       </c>
       <c r="J12">
-        <v>0.18</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10900,10 +10900,10 @@
         <v>0.156</v>
       </c>
       <c r="I13">
-        <v>0.076</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J13">
-        <v>0.9399999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10932,10 +10932,10 @@
         <v>-0.038</v>
       </c>
       <c r="I14">
-        <v>-1.314</v>
+        <v>-1.259</v>
       </c>
       <c r="J14">
-        <v>0.19</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10964,10 +10964,10 @@
         <v>0.013</v>
       </c>
       <c r="I15">
-        <v>0.448</v>
+        <v>0.495</v>
       </c>
       <c r="J15">
-        <v>0.654</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10996,10 +10996,10 @@
         <v>0.021</v>
       </c>
       <c r="I16">
-        <v>0.638</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J16">
-        <v>0.524</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11028,10 +11028,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-0.823</v>
+        <v>-1.125</v>
       </c>
       <c r="J17">
-        <v>0.412</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11060,10 +11060,10 @@
         <v>-0.059</v>
       </c>
       <c r="I18">
-        <v>-1.61</v>
+        <v>-2.237</v>
       </c>
       <c r="J18">
-        <v>0.109</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11092,10 +11092,10 @@
         <v>-0.012</v>
       </c>
       <c r="I19">
-        <v>-0.297</v>
+        <v>-0.262</v>
       </c>
       <c r="J19">
-        <v>0.767</v>
+        <v>0.793</v>
       </c>
     </row>
   </sheetData>
@@ -11181,10 +11181,10 @@
         <v>-2.045</v>
       </c>
       <c r="I2">
-        <v>-0.724</v>
+        <v>-0.677</v>
       </c>
       <c r="J2">
-        <v>0.47</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11213,10 +11213,10 @@
         <v>-0.613</v>
       </c>
       <c r="I3">
-        <v>-0.206</v>
+        <v>-0.176</v>
       </c>
       <c r="J3">
-        <v>0.837</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11245,10 +11245,10 @@
         <v>3.254</v>
       </c>
       <c r="I4">
-        <v>1.067</v>
+        <v>1.257</v>
       </c>
       <c r="J4">
-        <v>0.287</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11277,10 +11277,10 @@
         <v>3.759</v>
       </c>
       <c r="I5">
-        <v>1.282</v>
+        <v>1.273</v>
       </c>
       <c r="J5">
-        <v>0.201</v>
+        <v>0.203</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11309,10 +11309,10 @@
         <v>4.728</v>
       </c>
       <c r="I6">
-        <v>1.575</v>
+        <v>2.144</v>
       </c>
       <c r="J6">
-        <v>0.117</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11341,10 +11341,10 @@
         <v>-1.282</v>
       </c>
       <c r="I7">
-        <v>-0.389</v>
+        <v>-0.412</v>
       </c>
       <c r="J7">
-        <v>0.698</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11373,10 +11373,10 @@
         <v>1.294</v>
       </c>
       <c r="I8">
-        <v>1.131</v>
+        <v>1.044</v>
       </c>
       <c r="J8">
-        <v>0.259</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11405,10 +11405,10 @@
         <v>0.168</v>
       </c>
       <c r="I9">
-        <v>0.143</v>
+        <v>0.125</v>
       </c>
       <c r="J9">
-        <v>0.886</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11437,10 +11437,10 @@
         <v>-1.643</v>
       </c>
       <c r="I10">
-        <v>-1.36</v>
+        <v>-1.474</v>
       </c>
       <c r="J10">
-        <v>0.175</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11469,10 +11469,10 @@
         <v>-1.321</v>
       </c>
       <c r="I11">
-        <v>-1.083</v>
+        <v>-1.266</v>
       </c>
       <c r="J11">
-        <v>0.28</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11501,10 +11501,10 @@
         <v>-1.417</v>
       </c>
       <c r="I12">
-        <v>-1.165</v>
+        <v>-1.246</v>
       </c>
       <c r="J12">
-        <v>0.245</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11533,10 +11533,10 @@
         <v>0.847</v>
       </c>
       <c r="I13">
-        <v>0.711</v>
+        <v>0.804</v>
       </c>
       <c r="J13">
-        <v>0.478</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11565,10 +11565,10 @@
         <v>-0.025</v>
       </c>
       <c r="I14">
-        <v>-1.508</v>
+        <v>-1.297</v>
       </c>
       <c r="J14">
-        <v>0.133</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11597,10 +11597,10 @@
         <v>-0.02</v>
       </c>
       <c r="I15">
-        <v>-1.173</v>
+        <v>-1.023</v>
       </c>
       <c r="J15">
-        <v>0.242</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11629,10 +11629,10 @@
         <v>-0.023</v>
       </c>
       <c r="I16">
-        <v>-1.244</v>
+        <v>-1.319</v>
       </c>
       <c r="J16">
-        <v>0.215</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11661,10 +11661,10 @@
         <v>-0.028</v>
       </c>
       <c r="I17">
-        <v>-1.423</v>
+        <v>-1.553</v>
       </c>
       <c r="J17">
-        <v>0.156</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11693,10 +11693,10 @@
         <v>-0.013</v>
       </c>
       <c r="I18">
-        <v>-0.633</v>
+        <v>-0.638</v>
       </c>
       <c r="J18">
-        <v>0.528</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11725,10 +11725,10 @@
         <v>-0.008</v>
       </c>
       <c r="I19">
-        <v>-0.366</v>
+        <v>-0.301</v>
       </c>
       <c r="J19">
-        <v>0.714</v>
+        <v>0.764</v>
       </c>
     </row>
   </sheetData>
@@ -11814,10 +11814,10 @@
         <v>-5.468</v>
       </c>
       <c r="I2">
-        <v>-1.67</v>
+        <v>-1.777</v>
       </c>
       <c r="J2">
-        <v>0.096</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11846,10 +11846,10 @@
         <v>1.196</v>
       </c>
       <c r="I3">
-        <v>0.344</v>
+        <v>0.285</v>
       </c>
       <c r="J3">
-        <v>0.731</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11878,10 +11878,10 @@
         <v>6.751</v>
       </c>
       <c r="I4">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J4">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11910,10 +11910,10 @@
         <v>4.859</v>
       </c>
       <c r="I5">
-        <v>1.423</v>
+        <v>1.399</v>
       </c>
       <c r="J5">
-        <v>0.156</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11942,10 +11942,10 @@
         <v>6.574</v>
       </c>
       <c r="I6">
-        <v>1.883</v>
+        <v>2.127</v>
       </c>
       <c r="J6">
-        <v>0.061</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11974,10 +11974,10 @@
         <v>-0.583</v>
       </c>
       <c r="I7">
-        <v>-0.152</v>
+        <v>-0.147</v>
       </c>
       <c r="J7">
-        <v>0.879</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12006,10 +12006,10 @@
         <v>2.301</v>
       </c>
       <c r="I8">
-        <v>1.732</v>
+        <v>1.738</v>
       </c>
       <c r="J8">
-        <v>0.08500000000000001</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12038,10 +12038,10 @@
         <v>-0.188</v>
       </c>
       <c r="I9">
-        <v>-0.137</v>
+        <v>-0.108</v>
       </c>
       <c r="J9">
-        <v>0.891</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12070,10 +12070,10 @@
         <v>-3.222</v>
       </c>
       <c r="I10">
-        <v>-2.305</v>
+        <v>-2.047</v>
       </c>
       <c r="J10">
-        <v>0.022</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12102,10 +12102,10 @@
         <v>-2.076</v>
       </c>
       <c r="I11">
-        <v>-1.463</v>
+        <v>-1.556</v>
       </c>
       <c r="J11">
-        <v>0.145</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12134,10 +12134,10 @@
         <v>-2.427</v>
       </c>
       <c r="I12">
-        <v>-1.717</v>
+        <v>-1.756</v>
       </c>
       <c r="J12">
-        <v>0.08699999999999999</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12166,10 +12166,10 @@
         <v>0.552</v>
       </c>
       <c r="I13">
-        <v>0.397</v>
+        <v>0.391</v>
       </c>
       <c r="J13">
-        <v>0.6909999999999999</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12198,10 +12198,10 @@
         <v>-0.027</v>
       </c>
       <c r="I14">
-        <v>-1.378</v>
+        <v>-1.101</v>
       </c>
       <c r="J14">
-        <v>0.17</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12230,10 +12230,10 @@
         <v>-0.022</v>
       </c>
       <c r="I15">
-        <v>-1.116</v>
+        <v>-0.903</v>
       </c>
       <c r="J15">
-        <v>0.266</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12262,10 +12262,10 @@
         <v>-0</v>
       </c>
       <c r="I16">
-        <v>-0.008999999999999999</v>
+        <v>-0.01</v>
       </c>
       <c r="J16">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12294,10 +12294,10 @@
         <v>-0.019</v>
       </c>
       <c r="I17">
-        <v>-0.842</v>
+        <v>-0.895</v>
       </c>
       <c r="J17">
-        <v>0.401</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12326,10 +12326,10 @@
         <v>0.011</v>
       </c>
       <c r="I18">
-        <v>0.455</v>
+        <v>0.466</v>
       </c>
       <c r="J18">
-        <v>0.649</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12358,10 +12358,10 @@
         <v>0.001</v>
       </c>
       <c r="I19">
-        <v>0.045</v>
+        <v>0.032</v>
       </c>
       <c r="J19">
-        <v>0.964</v>
+        <v>0.974</v>
       </c>
     </row>
   </sheetData>
@@ -12447,10 +12447,10 @@
         <v>-6.109</v>
       </c>
       <c r="I2">
-        <v>-1.602</v>
+        <v>-1.821</v>
       </c>
       <c r="J2">
-        <v>0.111</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12479,10 +12479,10 @@
         <v>5.553</v>
       </c>
       <c r="I3">
-        <v>1.379</v>
+        <v>1.082</v>
       </c>
       <c r="J3">
-        <v>0.169</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12511,10 +12511,10 @@
         <v>9.720000000000001</v>
       </c>
       <c r="I4">
-        <v>2.373</v>
+        <v>2.368</v>
       </c>
       <c r="J4">
-        <v>0.019</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12543,10 +12543,10 @@
         <v>5.524</v>
       </c>
       <c r="I5">
-        <v>1.389</v>
+        <v>1.414</v>
       </c>
       <c r="J5">
-        <v>0.166</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12575,10 +12575,10 @@
         <v>6.255</v>
       </c>
       <c r="I6">
-        <v>1.535</v>
+        <v>1.766</v>
       </c>
       <c r="J6">
-        <v>0.126</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12607,10 +12607,10 @@
         <v>-2.923</v>
       </c>
       <c r="I7">
-        <v>-0.654</v>
+        <v>-0.632</v>
       </c>
       <c r="J7">
-        <v>0.514</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12639,10 +12639,10 @@
         <v>2.476</v>
       </c>
       <c r="I8">
-        <v>1.6</v>
+        <v>1.644</v>
       </c>
       <c r="J8">
-        <v>0.111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12671,10 +12671,10 @@
         <v>-1.965</v>
       </c>
       <c r="I9">
-        <v>-1.239</v>
+        <v>-0.878</v>
       </c>
       <c r="J9">
-        <v>0.217</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12703,10 +12703,10 @@
         <v>-4.117</v>
       </c>
       <c r="I10">
-        <v>-2.537</v>
+        <v>-2.339</v>
       </c>
       <c r="J10">
-        <v>0.012</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12735,10 +12735,10 @@
         <v>-2.264</v>
       </c>
       <c r="I11">
-        <v>-1.37</v>
+        <v>-1.399</v>
       </c>
       <c r="J11">
-        <v>0.172</v>
+        <v>0.162</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12767,10 +12767,10 @@
         <v>-2.367</v>
       </c>
       <c r="I12">
-        <v>-1.435</v>
+        <v>-1.564</v>
       </c>
       <c r="J12">
-        <v>0.153</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12799,10 +12799,10 @@
         <v>1.099</v>
       </c>
       <c r="I13">
-        <v>0.679</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="J13">
-        <v>0.498</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12831,10 +12831,10 @@
         <v>-0.022</v>
       </c>
       <c r="I14">
-        <v>-0.953</v>
+        <v>-0.755</v>
       </c>
       <c r="J14">
-        <v>0.341</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12863,10 +12863,10 @@
         <v>-0.021</v>
       </c>
       <c r="I15">
-        <v>-0.922</v>
+        <v>-0.806</v>
       </c>
       <c r="J15">
-        <v>0.358</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12895,7 +12895,7 @@
         <v>-0</v>
       </c>
       <c r="I16">
-        <v>-0.005</v>
+        <v>-0.006</v>
       </c>
       <c r="J16">
         <v>0.996</v>
@@ -12927,10 +12927,10 @@
         <v>-0.019</v>
       </c>
       <c r="I17">
-        <v>-0.717</v>
+        <v>-0.769</v>
       </c>
       <c r="J17">
-        <v>0.474</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12959,10 +12959,10 @@
         <v>0.004</v>
       </c>
       <c r="I18">
-        <v>0.141</v>
+        <v>0.16</v>
       </c>
       <c r="J18">
-        <v>0.888</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12991,10 +12991,10 @@
         <v>0.006</v>
       </c>
       <c r="I19">
-        <v>0.193</v>
+        <v>0.155</v>
       </c>
       <c r="J19">
-        <v>0.847</v>
+        <v>0.877</v>
       </c>
     </row>
   </sheetData>
@@ -13087,10 +13087,10 @@
         <v>-6.221</v>
       </c>
       <c r="J2">
-        <v>-1.461</v>
+        <v>-1.695</v>
       </c>
       <c r="K2">
-        <v>0.145</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -13122,10 +13122,10 @@
         <v>6.037</v>
       </c>
       <c r="J3">
-        <v>1.344</v>
+        <v>1.029</v>
       </c>
       <c r="K3">
-        <v>0.18</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -13157,10 +13157,10 @@
         <v>11.745</v>
       </c>
       <c r="J4">
-        <v>2.577</v>
+        <v>2.738</v>
       </c>
       <c r="K4">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -13192,10 +13192,10 @@
         <v>7.862</v>
       </c>
       <c r="J5">
-        <v>1.778</v>
+        <v>1.663</v>
       </c>
       <c r="K5">
-        <v>0.077</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -13227,10 +13227,10 @@
         <v>7.054</v>
       </c>
       <c r="J6">
-        <v>1.552</v>
+        <v>1.512</v>
       </c>
       <c r="K6">
-        <v>0.122</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -13297,10 +13297,10 @@
         <v>1.985</v>
       </c>
       <c r="J8">
-        <v>1.147</v>
+        <v>1.168</v>
       </c>
       <c r="K8">
-        <v>0.253</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -13332,10 +13332,10 @@
         <v>-2.191</v>
       </c>
       <c r="J9">
-        <v>-1.239</v>
+        <v>-0.884</v>
       </c>
       <c r="K9">
-        <v>0.217</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -13367,10 +13367,10 @@
         <v>-4.88</v>
       </c>
       <c r="J10">
-        <v>-2.702</v>
+        <v>-2.634</v>
       </c>
       <c r="K10">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -13402,10 +13402,10 @@
         <v>-3.324</v>
       </c>
       <c r="J11">
-        <v>-1.809</v>
+        <v>-1.552</v>
       </c>
       <c r="K11">
-        <v>0.07199999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13437,10 +13437,10 @@
         <v>-3.079</v>
       </c>
       <c r="J12">
-        <v>-1.677</v>
+        <v>-1.683</v>
       </c>
       <c r="K12">
-        <v>0.095</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13472,10 +13472,10 @@
         <v>-0.109</v>
       </c>
       <c r="J13">
-        <v>-0.06</v>
+        <v>-0.061</v>
       </c>
       <c r="K13">
-        <v>0.952</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13507,10 +13507,10 @@
         <v>-0.015</v>
       </c>
       <c r="J14">
-        <v>-0.602</v>
+        <v>-0.599</v>
       </c>
       <c r="K14">
-        <v>0.548</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -13542,10 +13542,10 @@
         <v>0.004</v>
       </c>
       <c r="J15">
-        <v>0.137</v>
+        <v>0.141</v>
       </c>
       <c r="K15">
-        <v>0.891</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -13577,10 +13577,10 @@
         <v>0.011</v>
       </c>
       <c r="J16">
-        <v>0.395</v>
+        <v>0.535</v>
       </c>
       <c r="K16">
-        <v>0.694</v>
+        <v>0.592</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13612,10 +13612,10 @@
         <v>-0.023</v>
       </c>
       <c r="J17">
-        <v>-0.765</v>
+        <v>-0.971</v>
       </c>
       <c r="K17">
-        <v>0.445</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13647,10 +13647,10 @@
         <v>-0.007</v>
       </c>
       <c r="J18">
-        <v>-0.223</v>
+        <v>-0.246</v>
       </c>
       <c r="K18">
-        <v>0.824</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13682,10 +13682,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="J19">
-        <v>-0.245</v>
+        <v>-0.214</v>
       </c>
       <c r="K19">
-        <v>0.8070000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -13771,10 +13771,10 @@
         <v>-3.402</v>
       </c>
       <c r="I2">
-        <v>-1.222</v>
+        <v>-1.254</v>
       </c>
       <c r="J2">
-        <v>0.223</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -13803,10 +13803,10 @@
         <v>-2.235</v>
       </c>
       <c r="I3">
-        <v>-0.76</v>
+        <v>-0.594</v>
       </c>
       <c r="J3">
-        <v>0.448</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -13835,10 +13835,10 @@
         <v>-0.224</v>
       </c>
       <c r="I4">
-        <v>-0.074</v>
+        <v>-0.083</v>
       </c>
       <c r="J4">
-        <v>0.9409999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -13867,10 +13867,10 @@
         <v>2.619</v>
       </c>
       <c r="I5">
-        <v>0.902</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J5">
-        <v>0.368</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -13899,10 +13899,10 @@
         <v>3.592</v>
       </c>
       <c r="I6">
-        <v>1.208</v>
+        <v>1.306</v>
       </c>
       <c r="J6">
-        <v>0.228</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -13931,10 +13931,10 @@
         <v>-2.554</v>
       </c>
       <c r="I7">
-        <v>-0.785</v>
+        <v>-0.83</v>
       </c>
       <c r="J7">
-        <v>0.433</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -13963,10 +13963,10 @@
         <v>2.107</v>
       </c>
       <c r="I8">
-        <v>1.873</v>
+        <v>1.829</v>
       </c>
       <c r="J8">
-        <v>0.062</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -13995,10 +13995,10 @@
         <v>0.66</v>
       </c>
       <c r="I9">
-        <v>0.57</v>
+        <v>0.443</v>
       </c>
       <c r="J9">
-        <v>0.569</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -14027,10 +14027,10 @@
         <v>-0.131</v>
       </c>
       <c r="I10">
-        <v>-0.109</v>
+        <v>-0.117</v>
       </c>
       <c r="J10">
-        <v>0.913</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -14059,10 +14059,10 @@
         <v>-1.188</v>
       </c>
       <c r="I11">
-        <v>-0.985</v>
+        <v>-1.231</v>
       </c>
       <c r="J11">
-        <v>0.326</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -14091,10 +14091,10 @@
         <v>-0.882</v>
       </c>
       <c r="I12">
-        <v>-0.732</v>
+        <v>-0.697</v>
       </c>
       <c r="J12">
-        <v>0.465</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -14123,10 +14123,10 @@
         <v>1.316</v>
       </c>
       <c r="I13">
-        <v>1.119</v>
+        <v>1.346</v>
       </c>
       <c r="J13">
-        <v>0.264</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -14155,10 +14155,10 @@
         <v>-0.029</v>
       </c>
       <c r="I14">
-        <v>-1.727</v>
+        <v>-2.254</v>
       </c>
       <c r="J14">
-        <v>0.08599999999999999</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14187,10 +14187,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-1.632</v>
+        <v>-1.499</v>
       </c>
       <c r="J15">
-        <v>0.104</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -14219,10 +14219,10 @@
         <v>-0.04</v>
       </c>
       <c r="I16">
-        <v>-2.193</v>
+        <v>-1.867</v>
       </c>
       <c r="J16">
-        <v>0.029</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -14251,10 +14251,10 @@
         <v>-0.036</v>
       </c>
       <c r="I17">
-        <v>-1.834</v>
+        <v>-1.62</v>
       </c>
       <c r="J17">
-        <v>0.068</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -14283,10 +14283,10 @@
         <v>-0.008</v>
       </c>
       <c r="I18">
-        <v>-0.373</v>
+        <v>-0.319</v>
       </c>
       <c r="J18">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -14315,10 +14315,10 @@
         <v>0.001</v>
       </c>
       <c r="I19">
-        <v>0.054</v>
+        <v>0.048</v>
       </c>
       <c r="J19">
-        <v>0.957</v>
+        <v>0.962</v>
       </c>
     </row>
   </sheetData>
